--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0450/1/template_RP0450.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0450/1/template_RP0450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TMQ改修用\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0450\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9713FC1A-E44E-4ED2-AD93-5EBE32AF5FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD636C0-E7AF-46CD-8E99-66E390CF43F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業件名一覧" sheetId="10" r:id="rId1"/>
@@ -1586,18 +1586,18 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30">
         <f ca="1">_xlfn.LET(_xlpm.開始セル,B7,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30">
         <f ca="1">_xlfn.LET(_xlpm.開始セル,D7,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30">
         <f ca="1">_xlfn.LET(_xlpm.開始セル,F7,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
@@ -1626,18 +1626,18 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -1666,18 +1666,18 @@
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -1686,396 +1686,396 @@
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="str">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30" t="str">
         <f ca="1">IF($A13="","",_xlfn.LET(_xlpm.開始セル,B13,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列))))</f>
         <v/>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="str">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30" t="str">
         <f ca="1">IF($A13="","",_xlfn.LET(_xlpm.開始セル,D13,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列))))</f>
         <v/>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="str">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30" t="str">
         <f ca="1">IF($A13="","",_xlfn.LET(_xlpm.開始セル,F13,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列))))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="str">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30" t="str">
         <f t="shared" ref="C14:C33" ca="1" si="3">IF($A14="","",_xlfn.LET(_xlpm.開始セル,B14,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列))))</f>
         <v/>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="str">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30" t="str">
         <f t="shared" ref="E14:E33" ca="1" si="4">IF($A14="","",_xlfn.LET(_xlpm.開始セル,D14,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列))))</f>
         <v/>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="str">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30" t="str">
         <f t="shared" ref="G14:G33" ca="1" si="5">IF($A14="","",_xlfn.LET(_xlpm.開始セル,F14,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列))))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="str">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="str">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="str">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="str">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="str">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="str">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="str">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="str">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="str">
+      <c r="F17" s="30"/>
+      <c r="G17" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="str">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="str">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="str">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="str">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="str">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="str">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="str">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="str">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="str">
+      <c r="F20" s="30"/>
+      <c r="G20" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="str">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="str">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="str">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="str">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="str">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="str">
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="str">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="str">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="str">
+      <c r="F23" s="30"/>
+      <c r="G23" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="str">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="str">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="str">
+      <c r="F24" s="30"/>
+      <c r="G24" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="str">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="str">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="str">
+      <c r="F25" s="30"/>
+      <c r="G25" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="str">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="str">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="str">
+      <c r="F26" s="30"/>
+      <c r="G26" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="str">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="str">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="str">
+      <c r="F27" s="30"/>
+      <c r="G27" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="str">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="str">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="str">
+      <c r="F28" s="30"/>
+      <c r="G28" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="str">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="str">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="str">
+      <c r="F29" s="30"/>
+      <c r="G29" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="str">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="str">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="str">
+      <c r="F30" s="30"/>
+      <c r="G30" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="str">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="str">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="str">
+      <c r="F31" s="30"/>
+      <c r="G31" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="str">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="str">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="str">
+      <c r="F32" s="30"/>
+      <c r="G32" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="str">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="str">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="str">
+      <c r="F33" s="30"/>
+      <c r="G33" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -2084,18 +2084,18 @@
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30">
         <f ca="1">_xlfn.LET(_xlpm.開始セル,B34,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30">
         <f ca="1">_xlfn.LET(_xlpm.開始セル,D34,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
+      <c r="F34" s="30"/>
+      <c r="G34" s="30">
         <f ca="1">_xlfn.LET(_xlpm.開始セル,F34,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
@@ -2104,18 +2104,18 @@
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30">
         <f t="shared" ref="C35:C37" ca="1" si="6">_xlfn.LET(_xlpm.開始セル,B35,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30">
         <f t="shared" ref="E35:E39" ca="1" si="7">_xlfn.LET(_xlpm.開始セル,D35,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
+      <c r="F35" s="30"/>
+      <c r="G35" s="30">
         <f t="shared" ref="G35:G39" ca="1" si="8">_xlfn.LET(_xlpm.開始セル,F35,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
@@ -2124,18 +2124,18 @@
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
+      <c r="F36" s="30"/>
+      <c r="G36" s="30">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
@@ -2144,18 +2144,18 @@
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
+      <c r="F37" s="30"/>
+      <c r="G37" s="30">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
@@ -2176,18 +2176,18 @@
       <c r="A39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30">
         <f ca="1">_xlfn.LET(_xlpm.開始セル,B39,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
+      <c r="D39" s="30"/>
+      <c r="E39" s="30">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2">
+      <c r="F39" s="30"/>
+      <c r="G39" s="30">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
@@ -2250,18 +2250,18 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30">
         <f ca="1">_xlfn.LET(_xlpm.開始セル,B7,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30">
         <f ca="1">_xlfn.LET(_xlpm.開始セル,D7,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30">
         <f ca="1">_xlfn.LET(_xlpm.開始セル,F7,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
@@ -2290,18 +2290,18 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -2330,18 +2330,18 @@
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -2768,18 +2768,18 @@
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30">
         <f t="shared" ref="C35:C37" ca="1" si="6">_xlfn.LET(_xlpm.開始セル,B35,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30">
         <f t="shared" ref="E35:E39" ca="1" si="7">_xlfn.LET(_xlpm.開始セル,D35,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
+      <c r="F35" s="30"/>
+      <c r="G35" s="30">
         <f t="shared" ref="G35:G39" ca="1" si="8">_xlfn.LET(_xlpm.開始セル,F35,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
@@ -2788,18 +2788,18 @@
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
+      <c r="F36" s="30"/>
+      <c r="G36" s="30">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
@@ -2808,18 +2808,18 @@
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
+      <c r="F37" s="30"/>
+      <c r="G37" s="30">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
@@ -2840,18 +2840,18 @@
       <c r="A39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30">
         <f ca="1">_xlfn.LET(_xlpm.開始セル,B39,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
+      <c r="D39" s="30"/>
+      <c r="E39" s="30">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2">
+      <c r="F39" s="30"/>
+      <c r="G39" s="30">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
@@ -2934,18 +2934,18 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <f t="shared" ref="C8:C12" ca="1" si="0">_xlfn.LET(_xlpm.開始セル,B8,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <f t="shared" ref="E8:E12" ca="1" si="1">_xlfn.LET(_xlpm.開始セル,D8,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <f t="shared" ref="G8:G12" ca="1" si="2">_xlfn.LET(_xlpm.開始セル,F8,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
@@ -2974,18 +2974,18 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -3598,18 +3598,18 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <f t="shared" ref="C8:C12" ca="1" si="0">_xlfn.LET(_xlpm.開始セル,B8,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <f t="shared" ref="E8:E12" ca="1" si="1">_xlfn.LET(_xlpm.開始セル,D8,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <f t="shared" ref="G8:G12" ca="1" si="2">_xlfn.LET(_xlpm.開始セル,F8,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
@@ -3638,18 +3638,18 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -4262,18 +4262,18 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <f t="shared" ref="C8:C12" ca="1" si="0">_xlfn.LET(_xlpm.開始セル,B8,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <f t="shared" ref="E8:E12" ca="1" si="1">_xlfn.LET(_xlpm.開始セル,D8,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <f t="shared" ref="G8:G12" ca="1" si="2">_xlfn.LET(_xlpm.開始セル,F8,_xlpm.最終列,COLUMN()-COLUMN(_xlpm.開始セル),SUM(OFFSET(_xlpm.開始セル,0,0,1,_xlpm.最終列)))</f>
         <v>0</v>
       </c>
@@ -4302,18 +4302,18 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -11510,6 +11510,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B75AA8E107065D4B9601A3EA40E781EF" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3586ec2704c209f1687ec640e338f55f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="985cf666-13d0-4501-8a38-43609e4336b1" xmlns:ns3="4bdc2d77-33b4-4041-baa8-6724f7bacedf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9289fdf3051d6653683aa3a0e547245e" ns2:_="" ns3:_="">
     <xsd:import namespace="985cf666-13d0-4501-8a38-43609e4336b1"/>
@@ -11732,15 +11741,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11753,6 +11753,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82C11FF5-4FB9-4890-BD98-89146DE4AABE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90DC46C9-DB1C-4F0A-B3EF-A8F4B4CB9CF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11771,14 +11779,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82C11FF5-4FB9-4890-BD98-89146DE4AABE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A4CC6E9-7DE2-48A2-8412-787A78846240}">
   <ds:schemaRefs>

--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0450/1/template_RP0450.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0450/1/template_RP0450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TMQ改修用\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0450\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\tmq月報途中\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0450\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD636C0-E7AF-46CD-8E99-66E390CF43F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864570C-D9FE-4219-9E41-6647C183BE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="697" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業件名一覧" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="自係＋外注" sheetId="21" r:id="rId7"/>
     <sheet name="詳細情報" sheetId="11" r:id="rId8"/>
     <sheet name="検索条件" sheetId="13" r:id="rId9"/>
+    <sheet name="年報" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t>職種</t>
   </si>
@@ -116,6 +117,151 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>@数値2</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@数値3</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@数値4</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@数値5</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@数値6</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@数値7</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@数値8</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@数値9</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@数値10</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@数値11</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@数値12</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@工場名</t>
+    <rPh sb="1" eb="4">
+      <t>コウジョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>@4月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <rPh sb="0" eb="2">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +271,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +308,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -275,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,6 +529,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,6 +991,967 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>年報!$A$1</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>総作業件数(設備工事、撤去工事含む)　@年年度</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22597377792564666"/>
+          <c:y val="0.17285572139303482"/>
+          <c:w val="0.74255948640222791"/>
+          <c:h val="0.73481286480980923"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>年報!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@工場名</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>年報!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>年報!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7499-4B43-A4DC-49179B174073}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="749021072"/>
+        <c:axId val="648452520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="749021072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648452520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="648452520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749021072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.0156987418826166E-2"/>
+          <c:y val="7.1846405933963534E-2"/>
+          <c:w val="0.16908456865427032"/>
+          <c:h val="0.87413410094158428"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -911,6 +2028,91 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05D54E4-E89D-F416-426D-86AF42CF55D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371473</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BA479E-C578-4134-4BE5-14F89F71235E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="371472" cy="123824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1176,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1247,6 +2449,131 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48047A64-933A-4AA6-B01C-1F34D44B6E77}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="str">
+        <f>"総作業件数(設備工事、撤去工事含む)　" &amp;N3&amp;"年度"</f>
+        <v>総作業件数(設備工事、撤去工事含む)　@年年度</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11510,15 +12837,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B75AA8E107065D4B9601A3EA40E781EF" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3586ec2704c209f1687ec640e338f55f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="985cf666-13d0-4501-8a38-43609e4336b1" xmlns:ns3="4bdc2d77-33b4-4041-baa8-6724f7bacedf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9289fdf3051d6653683aa3a0e547245e" ns2:_="" ns3:_="">
     <xsd:import namespace="985cf666-13d0-4501-8a38-43609e4336b1"/>
@@ -11741,6 +13059,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11753,14 +13080,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82C11FF5-4FB9-4890-BD98-89146DE4AABE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90DC46C9-DB1C-4F0A-B3EF-A8F4B4CB9CF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11779,6 +13098,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82C11FF5-4FB9-4890-BD98-89146DE4AABE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A4CC6E9-7DE2-48A2-8412-787A78846240}">
   <ds:schemaRefs>

--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0450/1/template_RP0450.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0450/1/template_RP0450.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\tmq月報途中\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0450\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1034993\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864570C-D9FE-4219-9E41-6647C183BE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B080D1-391A-4AF3-86FE-914C1FEBAD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="697" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業件名一覧" sheetId="10" r:id="rId1"/>
@@ -2037,16 +2037,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2378,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2456,9 +2456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48047A64-933A-4AA6-B01C-1F34D44B6E77}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12837,6 +12835,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="985cf666-13d0-4501-8a38-43609e4336b1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4bdc2d77-33b4-4041-baa8-6724f7bacedf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B75AA8E107065D4B9601A3EA40E781EF" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3586ec2704c209f1687ec640e338f55f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="985cf666-13d0-4501-8a38-43609e4336b1" xmlns:ns3="4bdc2d77-33b4-4041-baa8-6724f7bacedf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9289fdf3051d6653683aa3a0e547245e" ns2:_="" ns3:_="">
     <xsd:import namespace="985cf666-13d0-4501-8a38-43609e4336b1"/>
@@ -13059,27 +13077,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A4CC6E9-7DE2-48A2-8412-787A78846240}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="22ebb4d4-70ce-43e1-b045-c49d48bafb78"/>
+    <ds:schemaRef ds:uri="985cf666-13d0-4501-8a38-43609e4336b1"/>
+    <ds:schemaRef ds:uri="4bdc2d77-33b4-4041-baa8-6724f7bacedf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="985cf666-13d0-4501-8a38-43609e4336b1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4bdc2d77-33b4-4041-baa8-6724f7bacedf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82C11FF5-4FB9-4890-BD98-89146DE4AABE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90DC46C9-DB1C-4F0A-B3EF-A8F4B4CB9CF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13096,24 +13114,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82C11FF5-4FB9-4890-BD98-89146DE4AABE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A4CC6E9-7DE2-48A2-8412-787A78846240}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="22ebb4d4-70ce-43e1-b045-c49d48bafb78"/>
-    <ds:schemaRef ds:uri="985cf666-13d0-4501-8a38-43609e4336b1"/>
-    <ds:schemaRef ds:uri="4bdc2d77-33b4-4041-baa8-6724f7bacedf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>